--- a/pred_ohlcv/54_21/2020-01-14 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 SOC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2623641.831832999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2606246.244632999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2606058.798332999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2614568.208232999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2614902.208232999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2614867.208232999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2657786.687833</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2651264.349632999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2691590.197933</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2703399.114033</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2703399.114033</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2703399.114033</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2703117.114033</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2706117.114033</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2705994.114033</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2714625.898633</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2711397.126033</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2711542.456033</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2708413.683433</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3163166.884833</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-3374952.821833</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3375052.821833</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3374900.821833</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3374840.821833</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3375040.821833</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3374433.299333</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3374399.299333</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3374856.821833</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3374856.821833</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3385262.207932999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3385101.710132999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3385151.710132999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-3283222.537333</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3345898.265133</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3345898.265133</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3359456.786532999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3359356.786532999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3359356.786532999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3359356.786532999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3358002.981633</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3356649.176733</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3355295.371833</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3353941.566933</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3353941.566933</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3353741.566933</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3454862.488533</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3621769.509333</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3587433.926874891</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3587433.926874891</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3591588.774074891</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3581862.802274891</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3585935.005574891</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3585935.005574891</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3579625.856374891</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3576625.856374891</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3588980.942574892</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3919553.268374891</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3919553.268374891</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3925769.028774892</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-5916672.942185314</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-5993082.942585315</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-5967799.143683945</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-5967799.143683945</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-5958236.967883945</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-6567832.992183944</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-6567032.992183944</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-6577033.301583944</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-6581533.301583944</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-6581583.301583944</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-6581633.301583944</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-6588912.754583944</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-6588877.754583944</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-6919027.984483943</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-7074774.820983944</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-7065055.068583944</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-7050020.068583944</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-7202003.339483944</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-7707047.920398145</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-7838542.579198145</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-5789569.003498145</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2007860.534198145</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2015852.650498145</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2015645.919298145</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2024080.287498145</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2337573.339998146</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2272224.839998146</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2407083.583698146</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2385069.118898145</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2385069.118898145</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2376634.750698145</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2599366.251598145</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2599366.251598145</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2959225.595898145</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2959225.595898145</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-3035829.255498145</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3058743.190398145</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3058743.190398145</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-3064361.397798146</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-3060686.374498146</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-3144993.952498146</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-3144993.952498146</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-3140807.439298146</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-3124897.226495358</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3124937.226495358</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-5746969.492795359</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-5708547.53099536</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-5717063.43369536</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-7730088.343970902</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-7730088.343970902</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-7729930.608470902</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-7731477.638170902</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-7913282.503070902</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-7913282.503070902</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-8062404.254270902</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-7977464.863170902</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-7899000.079170902</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-8052098.706070902</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-7666272.561270902</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-7581868.706070902</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-7581868.706070902</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-7577121.706070902</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-7551570.526370902</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-7551570.526370902</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-7532937.944970902</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-7427596.521370902</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-7302028.970646636</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-7302028.970646636</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-7260972.762446635</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-7287887.894846635</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-7287887.894846635</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-7290253.012646635</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-7309000.576746635</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-7388217.427846635</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-7388182.427846635</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-7407993.427846635</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-7400420.230046635</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-7402071.032246634</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-7402071.032246634</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-7314100.203846634</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-7314100.203846634</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-7435092.384846634</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-7435057.384846634</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-7435264.606046634</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-7809126.267846634</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-7810552.894846634</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-7810516.894846634</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-7856803.768946634</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-7712302.690360818</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-7872385.177060818</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7724091.929160818</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-7509877.616360818</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-7510347.829760818</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-7514893.558460818</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-7517871.067660818</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-7489871.067660818</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-7450896.804360818</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-7452869.574360818</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-7432576.684660817</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-7439583.344060818</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-7428563.471660818</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-7428563.471660818</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-7771189.035260818</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7779624.751960819</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-7547930.097813115</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-7979546.748413116</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-7896446.930613116</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-7931769.389313117</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-7350177.787513116</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-7308445.839513117</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-7252313.100580155</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-7319269.422319461</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-7317442.003879745</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-7319512.504879745</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-7319476.504879745</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-7319476.504879745</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-7321560.783279745</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-7345852.596779745</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-7360993.569379745</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-7360339.756579745</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-7295086.397079744</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-7295086.397079744</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-6844393.805568397</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-7078345.42935705</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-7074133.37835705</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-7080585.41785705</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-7073152.10845705</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-7128556.46385705</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-7124368.80985705</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-7129647.83305705</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-6932864.106857049</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-6882153.94005705</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-6690163.89175705</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-6716560.861157049</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-6746021.066857049</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-6812789.065657049</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-6812063.327257049</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-6812063.327257049</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-6813063.327257049</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-6821047.07105705</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-6848812.563557049</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-6830082.598955642</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-6461326.478555641</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-5999702.839890135</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-5876081.351490135</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-5897225.983290135</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-5897261.983290135</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-5897261.983290135</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-5907261.983290135</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-5907261.983290135</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-5917261.983290135</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-5881796.095990135</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-5395745.905990135</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-5371726.889990135</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-5493647.498490135</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-5488452.416990135</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-5492429.007490135</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-5492429.007490135</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-5492375.007490135</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-5492375.007490135</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-5698819.781590135</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-5649819.781590135</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-5604501.514890135</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-5625668.209990135</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-5648986.213890135</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-5629799.150490135</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-5757599.252790135</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-5729675.233890136</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-5752372.665690136</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-5765328.286490136</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-5765328.286490136</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-5786641.435190136</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-5635986.372290135</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-5609353.837690135</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-5720952.914690135</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-5765773.468790135</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-5730833.454590135</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-5703624.274190135</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-5752061.093290135</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-5752061.093290135</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-5771065.326090136</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-5760797.424490135</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-5776280.432590135</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-5749975.359090135</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-5733050.828790136</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-5766419.546990136</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-5817599.223890136</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-5805431.792490136</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-5790187.149390136</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-5773480.965590136</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-5791528.091590136</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-5812081.580290136</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-5686669.777790136</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-5740167.541090135</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-5705175.077790136</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-5749910.946190136</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 SOC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2603893.339232999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2606246.244632999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2606058.798332999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2614568.208232999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2614902.208232999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2614867.208232999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2706117.114033</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2705994.114033</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2714625.898633</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2711397.126033</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2711542.456033</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2708413.683433</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2722782.667333</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3273449.553633</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3374988.821833</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3375118.821833</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3375118.821833</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3374985.821833</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-3374952.821833</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3375052.821833</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3374900.821833</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3374840.821833</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3375040.821833</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3374433.299333</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3374399.299333</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3374856.821833</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3374856.821833</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3385262.207932999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3385101.710132999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3385151.710132999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-3273222.537333</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-3283222.537333</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-3309901.483233</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-3289901.483233</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3339311.113832999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3335582.131633</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3335582.131633</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3335582.131633</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3335582.131633</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3335026.743733</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3334249.743733</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3334249.743733</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3347808.265133</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3347031.265133</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3346803.265133</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-3346803.265133</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3346803.265133</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3345798.265133</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3345898.265133</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3345898.265133</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3359456.786532999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3359356.786532999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3359356.786532999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3359356.786532999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3358002.981633</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3356649.176733</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3355295.371833</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3353941.566933</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3353941.566933</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3353741.566933</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3454862.488533</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3496081.750233</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3585230.580533</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3585230.580533</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3588885.438233</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3587039.720533</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3601101.737633</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3601001.737633</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-3601001.737633</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3650927.336033</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3650927.336033</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3650927.336033</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3597881.330633</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3641338.326633</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3641238.326633</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3598495.690126829</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3643137.567726829</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3621769.509333</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3587433.926874891</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3587433.926874891</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3591588.774074891</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3581862.802274891</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3585935.005574891</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3585935.005574891</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3579625.856374891</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3576625.856374891</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3577687.271074892</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3588980.942574892</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-3593444.460174892</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3919553.268374891</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3919553.268374891</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3925769.028774892</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4010935.732174892</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4081371.354174891</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4325091.186974891</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-4353557.204674891</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4603637.875474892</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4603637.875474892</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-4623837.875474892</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-5916672.942185314</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-5993082.942585315</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-5985478.204385315</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-5967799.143683945</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-5967799.143683945</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-5958236.967883945</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-6567832.992183944</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-6567032.992183944</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-6577033.301583944</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-6581533.301583944</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-6581583.301583944</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-6581633.301583944</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-6588912.754583944</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-6588877.754583944</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-6888681.120383943</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-6919027.984483943</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-7074774.820983944</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-7065055.068583944</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-7050020.068583944</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-7202003.339483944</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-7619045.735498145</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-7707047.920398145</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2007860.534198145</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2015852.650498145</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2015645.919298145</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2024080.287498145</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2337573.339998146</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2272224.839998146</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2407083.583698146</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2385069.118898145</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2385069.118898145</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2376634.750698145</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2599366.251598145</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2599366.251598145</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2599225.595898145</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2959225.595898145</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2959225.595898145</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-3035829.255498145</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3058743.190398145</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3058743.190398145</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-3064361.397798146</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-3060686.374498146</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-3144993.952498146</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-3144993.952498146</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-3140807.439298146</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-3124933.226495358</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-3124897.226495358</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3124937.226495358</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-7730088.343970902</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-7730088.343970902</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-7729930.608470902</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-7731477.638170902</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-7913282.503070902</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-7913282.503070902</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-7913246.503070902</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-8062404.254270902</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-7977464.863170902</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-7899000.079170902</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-8052098.706070902</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-7666272.561270902</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-7581868.706070902</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-7581868.706070902</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-7577121.706070902</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-7551570.526370902</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-7551570.526370902</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-7532937.944970902</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-7509980.950670902</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-7475027.950170902</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-7427596.521370902</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-7302028.970646636</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-7302028.970646636</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-7260972.762446635</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-7287887.894846635</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-7287887.894846635</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-7290253.012646635</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-7309000.576746635</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-7388217.427846635</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-7388182.427846635</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-7407993.427846635</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-7400420.230046635</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-7402071.032246634</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-7402071.032246634</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-7314100.203846634</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-7314100.203846634</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-7435092.384846634</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-7435057.384846634</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-7435264.606046634</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-7809126.267846634</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-7810552.894846634</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-7810516.894846634</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-7856803.768946634</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-7712302.690360818</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-7872385.177060818</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7724091.929160818</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-7509877.616360818</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-7510347.829760818</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-7514893.558460818</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-7517871.067660818</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-7489871.067660818</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-7450896.804360818</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-7452869.574360818</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-7432576.684660817</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-7439583.344060818</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-7428563.471660818</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-7428563.471660818</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-7778757.830060818</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-7771189.035260818</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7779624.751960819</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-7535205.659813115</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-7350177.787513116</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-7428894.776813117</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-7428894.776813117</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-7428894.776813117</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-7428894.776813117</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-7441603.890413117</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-7308445.839513117</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-7190358.26369415</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-7134603.916616445</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-7134603.916616445</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-7110063.45351946</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-7114023.46321946</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-7331905.980519461</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-7318914.49271946</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-7319269.422319461</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-7319269.422319461</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-7317442.003879745</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-7319587.415279744</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-7319162.745279744</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-7319512.504879745</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-7319476.504879745</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-7319476.504879745</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-7321560.783279745</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-7345852.596779745</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-7360993.569379745</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-7360166.049279745</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-7360339.756579745</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-7295086.397079744</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-7295086.397079744</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-6844393.805568397</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-7078345.42935705</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-7074133.37835705</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-7080585.41785705</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-7073152.10845705</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-7128556.46385705</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-7124368.80985705</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-7129647.83305705</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-6932864.106857049</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-6882153.94005705</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-6690163.89175705</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-6716560.861157049</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-6720250.65385705</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-6746021.066857049</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-6812789.065657049</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-6812063.327257049</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-6812063.327257049</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-6813063.327257049</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-6821047.07105705</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-6848812.563557049</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-6847475.17735705</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-6830082.598955642</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-6461326.478555641</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-6123818.817555641</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-5999702.839890135</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-5876081.351490135</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-5897225.983290135</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-5897261.983290135</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-5897261.983290135</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-5907261.983290135</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-5907261.983290135</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-5917261.983290135</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-5881796.095990135</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-5395745.905990135</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-5372021.324390135</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-5371726.889990135</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-5493647.498490135</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-5488452.416990135</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-5492429.007490135</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-5492429.007490135</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-5492375.007490135</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-5492375.007490135</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-5698819.781590135</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-5649819.781590135</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-5604501.514890135</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-5625668.209990135</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-5648986.213890135</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-5629799.150490135</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-5757599.252790135</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-5729675.233890136</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-5752372.665690136</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-5765328.286490136</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-5765328.286490136</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-5786641.435190136</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-5635986.372290135</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-5609353.837690135</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-5625369.287990135</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-5720952.914690135</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-5765773.468790135</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-5730833.454590135</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-5703624.274190135</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-5752061.093290135</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-5752061.093290135</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-5771065.326090136</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-5760797.424490135</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-5776280.432590135</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-5749975.359090135</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-5733050.828790136</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-5766419.546990136</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-5817599.223890136</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-5805431.792490136</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-5790187.149390136</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-5773480.965590136</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-5791528.091590136</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-5812081.580290136</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-5686669.777790136</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-5740167.541090135</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-5705175.077790136</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-5749910.946190136</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
